--- a/biology/Zoologie/Chaetodipus_rudinoris/Chaetodipus_rudinoris.xlsx
+++ b/biology/Zoologie/Chaetodipus_rudinoris/Chaetodipus_rudinoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Souris à abajoues de San Quintin
-Chaetodipus rudinoris, la Souris à abajoues de San Quintin, est une espèce de Rongeurs de la famille des Heteromyidae. Ce sont des souris à poches[1], c'est-à-dire à larges abajoues, et à poil dur. 
+Chaetodipus rudinoris, la Souris à abajoues de San Quintin, est une espèce de Rongeurs de la famille des Heteromyidae. Ce sont des souris à poches, c'est-à-dire à larges abajoues, et à poil dur. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rongeur se rencontre au Mexique et aux États-Unis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rongeur se rencontre au Mexique et aux États-Unis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Chaetodipus rudinoris mesure 232 mm de longueur totale dont 128 mm pour sa queue[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Chaetodipus rudinoris mesure 232 mm de longueur totale dont 128 mm pour sa queue.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (31 mai 2024)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (31 mai 2024) :
 Chaetodipus rudinoris extimus (Nelson &amp; Goldman, 1929)
 Chaetodipus rudinoris fornicatus (Burt, 1932)
 Chaetodipus rudinoris hueyi (Nelson &amp; Goldman, 1929)
@@ -610,12 +628,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite pour la première fois en 1903 par le zoologiste américain Daniel Giraud Elliot (1835-1915)[4], comme étant une sous-espèce de Perognathus baileyi sous le protonyme Perognathus baileyi rudinoris[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Souris à abajoues de San Quintin[4].
-Publication originale
-(en) D. G. Elliot, « Descriptions of apparently new species and subspecies of mammals from California, Oregon, the Kenai peninsula, Alaska, and Lower California, Mexico », Publications of the Field Columbian Museum. Zoological series, Chicago, vol. 3, no 10,‎ avril 1903, p. 153-173 (ISSN 0097-3904, OCLC 1200873, DOI 10.5962/bhl.title.2531, lire en ligne)</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite pour la première fois en 1903 par le zoologiste américain Daniel Giraud Elliot (1835-1915), comme étant une sous-espèce de Perognathus baileyi sous le protonyme Perognathus baileyi rudinoris.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Souris à abajoues de San Quintin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chaetodipus_rudinoris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chaetodipus_rudinoris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) D. G. Elliot, « Descriptions of apparently new species and subspecies of mammals from California, Oregon, the Kenai peninsula, Alaska, and Lower California, Mexico », Publications of the Field Columbian Museum. Zoological series, Chicago, vol. 3, no 10,‎ avril 1903, p. 153-173 (ISSN 0097-3904, OCLC 1200873, DOI 10.5962/bhl.title.2531, lire en ligne)</t>
         </is>
       </c>
     </row>
